--- a/成果物/20_テーブル定義書/テーブル設計(案).xlsx
+++ b/成果物/20_テーブル定義書/テーブル設計(案).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\グループディスカッション\グループ開発\20_テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD87FBF-67C8-4679-8031-9596EFEBEB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D56AA1-CE6C-4354-AF8F-938B513B6350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77751C99-641B-48C9-8AD0-1B4C1D59072D}"/>
+    <workbookView xWindow="2535" yWindow="600" windowWidth="11295" windowHeight="9180" xr2:uid="{77751C99-641B-48C9-8AD0-1B4C1D59072D}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル設計" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>永山</t>
     <rPh sb="0" eb="2">
@@ -397,10 +397,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいね(good_total)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>つけあわせ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -570,6 +566,24 @@
   </si>
   <si>
     <t>レシピとカテゴリID(recipeand_category_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■いいね(good_table)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねID(good_id)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＊いいねを押した人</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1176,25 +1190,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FC37D9-B162-400B-9B2A-E4CD454736A1}">
-  <dimension ref="B2:N56"/>
+  <dimension ref="B2:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1203,12 +1218,12 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>29</v>
@@ -1217,27 +1232,27 @@
         <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -1248,44 +1263,44 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
       <c r="F7" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
@@ -1300,19 +1315,16 @@
         <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1323,25 +1335,22 @@
         <v>27</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B11" s="7">
         <v>1</v>
       </c>
@@ -1356,17 +1365,14 @@
         <v>20</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="7">
-        <v>0</v>
+      <c r="H11" s="12">
+        <v>44362</v>
       </c>
       <c r="I11" s="12">
         <v>44362</v>
       </c>
-      <c r="J11" s="12">
-        <v>44362</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -1383,26 +1389,23 @@
       <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="1">
-        <v>0</v>
+      <c r="H12" s="6">
+        <v>44362</v>
       </c>
       <c r="I12" s="6">
         <v>44362</v>
       </c>
-      <c r="J12" s="6">
-        <v>44362</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1474,7 +1477,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>37</v>
@@ -1525,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.4">
@@ -1562,13 +1565,13 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>39</v>
@@ -1730,16 +1733,16 @@
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1828,18 +1831,18 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1873,6 +1876,60 @@
       </c>
       <c r="D56" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1</v>
+      </c>
+      <c r="D62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D64" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
